--- a/docs/PTA2_DDC_60/PTA1_R6_BDDC_08.11.2024_output.xlsx
+++ b/docs/PTA2_DDC_60/PTA1_R6_BDDC_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,3009 +505,3574 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731413861.4352937</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731413866.0036533</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413861.4352937.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413866.0036533.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>7128.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7101</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-27.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731413875.3390794</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731413875.3390794.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731413875.3390794.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>7088</v>
       </c>
-      <c r="J4" t="n">
-        <v>7088</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
+      <c r="L4" t="n">
+        <v>7075.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731413878.5200663</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731413878.7757955</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413878.5200663.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413878.7757955.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>473.2</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>474.3</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.100000000000023</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731413879.497877</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731413882.6847315</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413879.497877.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413882.6847315.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>475.6</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>474.8</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.8000000000000114</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731413882.9713466</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731413884.337662</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413882.9713466.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413884.337662.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>473.85</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>474.2</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.3499999999999659</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731413888.424178</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731413889.0184598</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413888.424178.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413889.0184598.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>473.4</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>473.9</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731413890.5477073</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731413892.0687132</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413890.5477073.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413892.0687132.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>474.8</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>473.9</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.9000000000000341</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731413894.9885306</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731413896.8363106</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413894.9885306.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413896.8363106.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>475.25</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>475.4</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.1499999999999773</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731413897.5080843</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731413897.5080843.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731413897.5080843.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>474.6</v>
       </c>
-      <c r="J11" t="n">
-        <v>474.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="L11" t="n">
+        <v>474.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731413902.7082255</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731413905.8518958</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413902.7082255.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413905.8518958.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>931.4</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>930.8</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.6000000000000227</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731413906.0175588</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731413909.5966427</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413906.0175588.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413909.5966427.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>932.6</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>930.4</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731413910.5545084</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731413911.8978071</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413910.5545084.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413911.8978071.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>932</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>931.6</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731413916.4309554</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731413916.4309554.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731413916.4309554.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>931.4</v>
       </c>
-      <c r="J15" t="n">
-        <v>931.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+      <c r="L15" t="n">
+        <v>930.8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.6000000000000227</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731413918.7037628</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731413919.2827992</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413918.7037628.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413919.2827992.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>129.3</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>130.28</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.9799999999999898</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731413922.4757469</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731413926.0097225</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413922.4757469.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413926.0097225.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>129.36</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>129.54</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.1799999999999784</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731413926.1837027</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731413926.9676342</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413926.1837027.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413926.9676342.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>129.78</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>129.44</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731413930.173745</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731413931.851572</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413930.173745.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413931.851572.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>129.94</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>129.74</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731413935.3274615</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731413936.638101</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413935.3274615.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413936.638101.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>130.26</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>130.06</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731413937.3963225</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731413937.3963225.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731413937.3963225.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>129.9</v>
       </c>
-      <c r="J21" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
+      <c r="L21" t="n">
+        <v>130.08</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.1800000000000068</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731413939.371239</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731413940.9196563</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413939.371239.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413940.9196563.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>37.885</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>37.855</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731413942.4335806</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731413945.9662123</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413942.4335806.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413945.9662123.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>37.725</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>37.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.07499999999999574</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731413946.267215</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731413948.148212</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413946.267215.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413948.148212.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>37.88</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>37.815</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.06500000000000483</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731413950.474719</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731413951.8977094</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413950.474719.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413951.8977094.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>37.99</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>37.925</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.06500000000000483</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731413953.7913778</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731413956.2336013</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413953.7913778.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413956.2336013.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>38.05</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>38.01</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731413956.3692036</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731413956.3692036.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731413956.3692036.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>37.985</v>
       </c>
-      <c r="J27" t="n">
-        <v>37.985</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
+      <c r="L27" t="n">
+        <v>37.975</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.00999999999999801</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731413959.648655</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731413962.5786927</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413959.648655.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413962.5786927.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1180.8</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1184.4</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-3.600000000000136</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731413963.4560983</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731413966.2098649</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413963.4560983.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413966.2098649.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1182.4</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1184.4</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731413966.463136</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731413968.1676457</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413966.463136.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413968.1676457.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1186</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1183.8</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731413970.3159835</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731413972.0052328</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413970.3159835.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413972.0052328.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1187.4</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1186.2</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731413972.549367</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731413976.7394938</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413972.549367.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413976.7394938.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1191</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1189.4</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>1.599999999999909</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731413976.9214838</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731413977.116477</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413976.9214838.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413977.116477.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1188</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1190</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731413980.7118907</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731413982.7457423</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413980.7118907.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413982.7457423.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>79.08</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>78.73999999999999</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731413982.8450778</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731413986.1270669</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413982.8450778.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413986.1270669.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>78.59</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>78.47</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731413986.5778747</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731413988.5915937</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413986.5778747.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413988.5915937.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>78.51000000000001</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>78.38</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.1300000000000097</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731413988.86582</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731413990.1990957</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413988.86582.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413990.1990957.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>78.12</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>78.38</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731413990.8053048</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731413992.3401585</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413990.8053048.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413992.3401585.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>78.63</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731413994.5488992</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731413997.1172686</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413994.5488992.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413997.1172686.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>78.68000000000001</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>78.53</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731413998.121453</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731413998.121453.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731413998.121453.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>78.55</v>
       </c>
-      <c r="J40" t="n">
-        <v>78.55</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
+      <c r="L40" t="n">
+        <v>78.62</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.07000000000000739</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731413999.2574296</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731414001.4595447</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731413999.2574296.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731414001.4595447.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>103.28</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>103.63</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.3499999999999943</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731414002.060643</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731414003.0863323</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731414002.060643.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731414003.0863323.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>103</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>103.18</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731414003.9231548</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731414006.68506</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731414003.9231548.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731414006.68506.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>102.38</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>102.57</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731414007.5640464</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731414008.9312222</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731414007.5640464.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731414008.9312222.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>102.88</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>102.4</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.4799999999999898</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731414011.3789256</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731414013.1946967</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731414011.3789256.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731414013.1946967.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>103.1</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>102.66</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731414015.5351326</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731414016.476313</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731414015.5351326.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731414016.476313.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>103.36</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>102.98</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731414019.3434997</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731414019.591312</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731414019.3434997.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731414019.591312.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>102.69</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>103.1</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.4099999999999966</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731414021.3712332</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731414022.8281252</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MXI1731414021.3712332.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MXI1731414022.8281252.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>2756.95</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>2753.15</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>3.799999999999727</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731414024.0911713</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731414028.2214808</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MXI1731414024.0911713.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MXI1731414028.2214808.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>2749.6</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>2746.65</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-2.949999999999818</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731414032.5280113</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731414033.8694701</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731414032.5280113.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731414033.8694701.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>2750.1</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>2746.85</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>3.25</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731414039.8005948</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731414039.8005948.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731414039.8005948.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>2742.55</v>
       </c>
-      <c r="J51" t="n">
-        <v>2742.55</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
+      <c r="L51" t="n">
+        <v>2744.45</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.899999999999636</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731414048.810019</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731414049.3379884</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/APTK1731414048.810019.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/APTK1731414049.3379884.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>10.86</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>10.872</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.01200000000000045</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731414050.4758995</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731414051.0354896</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/APTK1731414050.4758995.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/APTK1731414051.0354896.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>10.832</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>10.856</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.02399999999999913</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731414054.5440853</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731414056.128184</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/APTK1731414054.5440853.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/APTK1731414056.128184.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>10.836</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>10.852</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.01600000000000001</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731414059.2932458</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/APTK1731414059.2932458.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/APTK1731414059.2932458.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>10.858</v>
       </c>
-      <c r="J55" t="n">
-        <v>10.858</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
+      <c r="L55" t="n">
+        <v>10.868</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.009999999999999787</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731414062.861514</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731414064.3573022</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731414062.861514.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731414064.3573022.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>483</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>481</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>2</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731414068.0984426</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731414068.8384233</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731414068.0984426.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731414068.8384233.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>484.4</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>481.7</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>2.699999999999989</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731414071.9203892</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731414075.4763265</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731414071.9203892.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731414075.4763265.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>484.2</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>485.4</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-1.199999999999989</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731414076.2855356</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731414076.9282558</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731414076.2855356.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731414076.9282558.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>484.6</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>485.4</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731414078.3786454</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731414079.451164</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731414078.3786454.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731414079.451164.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>483.3</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>484.7</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>1.399999999999977</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731414080.9987202</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731414082.4000752</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/TATN1731414080.9987202.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/TATN1731414082.4000752.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>576.8</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>575</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731414083.7517476</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731414085.4337385</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/TATN1731414083.7517476.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/TATN1731414085.4337385.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>575</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>575.8</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731414087.9692895</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731414096.9263847</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/TATN1731414087.9692895.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/TATN1731414096.9263847.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>577.8</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>582.2</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-4.400000000000091</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.76</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731414097.8383472</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731414097.8383472.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731414097.8383472.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>581</v>
       </c>
-      <c r="J64" t="n">
-        <v>581</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
+      <c r="L64" t="n">
+        <v>575.7</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-5.299999999999955</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.91</v>
       </c>
     </row>
   </sheetData>
@@ -3506,7 +4086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3535,6 +4115,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3551,6 +4141,12 @@
       <c r="D2" t="n">
         <v>0.347142857142854</v>
       </c>
+      <c r="E2" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3559,13 +4155,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.500000000000057</v>
+        <v>3.400000000000034</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5000000000000081</v>
+        <v>0.4857142857142906</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -3575,13 +4177,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.040000000000006</v>
+        <v>1.110000000000014</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1485714285714295</v>
+        <v>0.1585714285714305</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -3599,6 +4207,12 @@
       <c r="D5" t="n">
         <v>0.8999999999999773</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3607,13 +4221,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2750000000000057</v>
+        <v>0.2650000000000077</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04583333333333428</v>
+        <v>0.04416666666666794</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -3623,13 +4243,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.899999999999949</v>
+        <v>2.079999999999956</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3166666666666582</v>
+        <v>0.3466666666666593</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="8">
@@ -3647,6 +4273,12 @@
       <c r="D8" t="n">
         <v>1.139999999999986</v>
       </c>
+      <c r="E8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3655,13 +4287,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0519999999999996</v>
+        <v>0.04199999999999982</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0129999999999999</v>
+        <v>0.01049999999999995</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="10">
@@ -3671,13 +4309,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.099999999999909</v>
+        <v>5.999999999999545</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1.024999999999977</v>
+        <v>1.499999999999886</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="11">
@@ -3687,13 +4331,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1.399999999999977</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5</v>
+        <v>0.3499999999999943</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="12">
@@ -3703,13 +4353,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.800000000000182</v>
+        <v>-7.100000000000136</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4500000000000455</v>
+        <v>-1.775000000000034</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="13">
@@ -3719,13 +4375,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-27.5</v>
+        <v>-40</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-13.75</v>
+        <v>-20</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="14">
@@ -3741,6 +4403,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
